--- a/trunk/WIP/Documents/Test/Quality Report.xlsx
+++ b/trunk/WIP/Documents/Test/Quality Report.xlsx
@@ -90,9 +90,6 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Test case</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -348,28 +348,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,9 +462,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,6 +477,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -681,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G22"/>
+  <dimension ref="C2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C3" sqref="C3:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,257 +821,255 @@
       </c>
     </row>
     <row r="3" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="32"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="32"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="33"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="G10" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
         <v>6</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="D14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="9">
+      <c r="F15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="9">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="F16" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="16">
-        <v>5</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
-        <v>6</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="16">
-        <v>7</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="G16" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="10">
-        <v>8</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19">
+        <f>G5+G6+G7+G8+G10+G11+G12+G13+G14+G15+G16</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25">
-        <f>G6+G7+G8+G9+G11+G12+G13+G14+G15+G16+G17</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="C5:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F11:F16" numberStoredAsText="1"/>
+    <ignoredError sqref="F10:F15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>